--- a/htdocs/que_falta.xlsx
+++ b/htdocs/que_falta.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista de comprobación - LA SALL" sheetId="1" r:id="rId4"/>
+    <sheet name="Lista de comprobación - LA SALL" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>LA SALLE REVIEW - YES WE CAN!</t>
   </si>
@@ -37,7 +44,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -51,7 +58,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -83,7 +90,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -103,7 +110,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -117,7 +124,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -137,7 +144,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -157,7 +164,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -168,7 +175,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Avenir Next Regular"/>
@@ -183,21 +190,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,19 +208,19 @@
       <name val="Avenir Next Medium"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Avenir Next Demi Bold"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next Regular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +239,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -254,17 +258,13 @@
       <left/>
       <right/>
       <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -277,33 +277,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -311,30 +323,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff313131"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ff008cb4"/>
-      <rgbColor rgb="ffeeeeee"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF313131"/>
+      <rgbColor rgb="FFFEFFFE"/>
+      <rgbColor rgb="FF008CB4"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -528,7 +590,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -537,7 +599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -549,7 +611,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -558,7 +620,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -567,7 +629,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -686,14 +748,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -712,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,9 +1025,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -981,7 +1049,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1000,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,9 +1315,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1262,7 +1336,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1281,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,7 +1541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1493,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1519,7 +1593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1532,339 +1606,353 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B39"/>
+  <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.12877" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.4531" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="1" customWidth="1"/>
     <col min="3" max="256" width="6.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="3">
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s" s="6">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" ht="22" customHeight="1">
+      <c r="A4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s" s="7">
+    <row r="5" spans="1:2" ht="22" customHeight="1">
+      <c r="A5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="36" customHeight="1">
-      <c r="A6" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s" s="6">
+    <row r="6" spans="1:2" ht="36" customHeight="1">
+      <c r="A6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="36" customHeight="1">
-      <c r="A7" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s" s="7">
+    <row r="7" spans="1:2" ht="36" customHeight="1">
+      <c r="A7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:2" ht="22" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s" s="7">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" ht="22" customHeight="1">
+      <c r="A9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:2" ht="22" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s" s="7">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" ht="22" customHeight="1">
+      <c r="A11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s" s="6">
+    <row r="12" spans="1:2" ht="22" customHeight="1">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s" s="7">
+    <row r="13" spans="1:2" ht="22" customHeight="1">
+      <c r="A13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s" s="6">
+    <row r="14" spans="1:2" ht="22" customHeight="1">
+      <c r="A14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="22" customHeight="1">
-      <c r="A15" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s" s="7">
+    <row r="15" spans="1:2" ht="22" customHeight="1">
+      <c r="A15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="22" customHeight="1">
-      <c r="A16" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s" s="6">
+    <row r="16" spans="1:2" ht="22" customHeight="1">
+      <c r="A16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s" s="7">
+    <row r="17" spans="1:2" ht="22" customHeight="1">
+      <c r="A17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="22" customHeight="1">
-      <c r="A18" t="s" s="6">
+    <row r="18" spans="1:2" ht="22" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" ht="22" customHeight="1">
-      <c r="A19" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s" s="7">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="22" customHeight="1">
+      <c r="A19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="22" customHeight="1">
-      <c r="A20" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s" s="6">
+    <row r="20" spans="1:2" ht="22" customHeight="1">
+      <c r="A20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="22" customHeight="1">
-      <c r="A21" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s" s="7">
+    <row r="21" spans="1:2" ht="22" customHeight="1">
+      <c r="A21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="22" customHeight="1">
-      <c r="A22" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s" s="6">
+    <row r="22" spans="1:2" ht="22" customHeight="1">
+      <c r="A22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="22" customHeight="1">
-      <c r="A23" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s" s="7">
+    <row r="23" spans="1:2" ht="22" customHeight="1">
+      <c r="A23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="22" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:2" ht="22" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" ht="22" customHeight="1">
-      <c r="A25" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s" s="7">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" ht="22" customHeight="1">
+      <c r="A25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" ht="22" customHeight="1">
-      <c r="A26" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s" s="6">
+    <row r="26" spans="1:2" ht="22" customHeight="1">
+      <c r="A26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="22" customHeight="1">
-      <c r="A27" t="s" s="7">
+    <row r="27" spans="1:2" ht="22" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" ht="22" customHeight="1">
-      <c r="A28" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s" s="6">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" ht="22" customHeight="1">
+      <c r="A28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" ht="22" customHeight="1">
-      <c r="A29" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s" s="7">
+    <row r="29" spans="1:2" ht="22" customHeight="1">
+      <c r="A29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="22" customHeight="1">
-      <c r="A30" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s" s="6">
+    <row r="30" spans="1:2" ht="22" customHeight="1">
+      <c r="A30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="22" customHeight="1">
-      <c r="A31" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s" s="7">
+    <row r="31" spans="1:2" ht="22" customHeight="1">
+      <c r="A31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" ht="22" customHeight="1">
-      <c r="A32" t="s" s="6">
+    <row r="32" spans="1:2" ht="22" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" ht="22" customHeight="1">
-      <c r="A33" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s" s="7">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" ht="22" customHeight="1">
+      <c r="A33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" ht="22" customHeight="1">
-      <c r="A34" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s" s="6">
+    <row r="34" spans="1:2" ht="22" customHeight="1">
+      <c r="A34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" ht="22" customHeight="1">
-      <c r="A35" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s" s="7">
+    <row r="35" spans="1:2" ht="22" customHeight="1">
+      <c r="A35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" ht="22" customHeight="1">
-      <c r="A36" t="s" s="6">
+    <row r="36" spans="1:2" ht="22" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" ht="22" customHeight="1">
-      <c r="A37" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s" s="7">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" ht="22" customHeight="1">
+      <c r="A37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" ht="22" customHeight="1">
-      <c r="A38" t="s" s="6">
+    <row r="38" spans="1:2" ht="22" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" ht="22" customHeight="1">
-      <c r="A39" t="b" s="7">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s" s="7">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="22" customHeight="1">
+      <c r="A39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Avenir Next Demi Bold,Bold"&amp;9&amp;KAAAAAA	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>